--- a/Banco Central/4/Paridades de monedas 1994 a 2021 - Mensual.xlsx
+++ b/Banco Central/4/Paridades de monedas 1994 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Serie</t>
   </si>
@@ -1185,6 +1185,9 @@
   <si>
     <t>01-06-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1541,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH331"/>
+  <dimension ref="A1:BH332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -53857,6 +53860,188 @@
         <v>3.7249</v>
       </c>
     </row>
+    <row r="332" spans="1:60">
+      <c r="A332" t="s">
+        <v>390</v>
+      </c>
+      <c r="B332">
+        <v>32.5872</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>3476182.9556</v>
+      </c>
+      <c r="E332">
+        <v>6.86</v>
+      </c>
+      <c r="F332">
+        <v>618.0438</v>
+      </c>
+      <c r="G332">
+        <v>21.6753</v>
+      </c>
+      <c r="H332">
+        <v>6.2893</v>
+      </c>
+      <c r="I332">
+        <v>124.3171</v>
+      </c>
+      <c r="J332">
+        <v>8.7682</v>
+      </c>
+      <c r="K332">
+        <v>8.617000000000001</v>
+      </c>
+      <c r="L332">
+        <v>0.7026</v>
+      </c>
+      <c r="M332">
+        <v>3.672</v>
+      </c>
+      <c r="N332">
+        <v>8.9321</v>
+      </c>
+      <c r="O332">
+        <v>1.3462</v>
+      </c>
+      <c r="P332">
+        <v>1.2512</v>
+      </c>
+      <c r="Q332">
+        <v>1</v>
+      </c>
+      <c r="R332">
+        <v>2.0869</v>
+      </c>
+      <c r="S332">
+        <v>0.82</v>
+      </c>
+      <c r="T332">
+        <v>1</v>
+      </c>
+      <c r="U332">
+        <v>1.3544</v>
+      </c>
+      <c r="V332">
+        <v>7.7698</v>
+      </c>
+      <c r="W332">
+        <v>1.4325</v>
+      </c>
+      <c r="X332">
+        <v>27.987</v>
+      </c>
+      <c r="Y332">
+        <v>23000.381</v>
+      </c>
+      <c r="Z332">
+        <v>0.8457</v>
+      </c>
+      <c r="AA332">
+        <v>301.8057</v>
+      </c>
+      <c r="AB332">
+        <v>100.4452</v>
+      </c>
+      <c r="AC332">
+        <v>0.9183</v>
+      </c>
+      <c r="AD332">
+        <v>6835.9905</v>
+      </c>
+      <c r="AE332">
+        <v>27.033</v>
+      </c>
+      <c r="AF332">
+        <v>4.1634</v>
+      </c>
+      <c r="AG332">
+        <v>15.6542</v>
+      </c>
+      <c r="AH332">
+        <v>0.7243000000000001</v>
+      </c>
+      <c r="AI332">
+        <v>8.607699999999999</v>
+      </c>
+      <c r="AJ332">
+        <v>3.9335</v>
+      </c>
+      <c r="AK332">
+        <v>96.1704</v>
+      </c>
+      <c r="AL332">
+        <v>750.4405</v>
+      </c>
+      <c r="AM332">
+        <v>3824.7257</v>
+      </c>
+      <c r="AN332">
+        <v>24</v>
+      </c>
+      <c r="AO332">
+        <v>56.8931</v>
+      </c>
+      <c r="AP332">
+        <v>49.975</v>
+      </c>
+      <c r="AQ332">
+        <v>19.9728</v>
+      </c>
+      <c r="AR332">
+        <v>43.743</v>
+      </c>
+      <c r="AS332">
+        <v>7.7241</v>
+      </c>
+      <c r="AT332">
+        <v>14.5179</v>
+      </c>
+      <c r="AU332">
+        <v>5.1548</v>
+      </c>
+      <c r="AV332">
+        <v>42000</v>
+      </c>
+      <c r="AW332">
+        <v>3.75</v>
+      </c>
+      <c r="AX332">
+        <v>4.1974</v>
+      </c>
+      <c r="AY332">
+        <v>73.95699999999999</v>
+      </c>
+      <c r="AZ332">
+        <v>74.5294</v>
+      </c>
+      <c r="BA332">
+        <v>14493.9524</v>
+      </c>
+      <c r="BB332">
+        <v>159.4144</v>
+      </c>
+      <c r="BC332">
+        <v>3.2693</v>
+      </c>
+      <c r="BD332">
+        <v>426.3319</v>
+      </c>
+      <c r="BE332">
+        <v>1143.9105</v>
+      </c>
+      <c r="BF332">
+        <v>110.3157</v>
+      </c>
+      <c r="BG332">
+        <v>6.4779</v>
+      </c>
+      <c r="BH332">
+        <v>3.8548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
